--- a/Gear Selection/Zone Factor.xlsx
+++ b/Gear Selection/Zone Factor.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30 d Z" sheetId="1" r:id="rId1"/>
     <sheet name="17d45' Z" sheetId="2" r:id="rId2"/>
+    <sheet name="Z Spur" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -86,6 +86,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,8 +378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACF4787-FAAA-45E7-89DD-58892930B72D}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2025,4 +2035,723 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045F6496-D478-403C-9E34-ECD5A5B4BA81}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="7">
+        <v>400</v>
+      </c>
+      <c r="C1" s="7">
+        <v>200</v>
+      </c>
+      <c r="D1" s="7">
+        <v>150</v>
+      </c>
+      <c r="E1" s="7">
+        <v>100</v>
+      </c>
+      <c r="F1" s="7">
+        <v>80</v>
+      </c>
+      <c r="G1" s="7">
+        <v>60</v>
+      </c>
+      <c r="H1" s="7">
+        <v>50</v>
+      </c>
+      <c r="I1" s="7">
+        <v>40</v>
+      </c>
+      <c r="J1" s="7">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7">
+        <v>20</v>
+      </c>
+      <c r="M1" s="7">
+        <v>15</v>
+      </c>
+      <c r="N1" s="7">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.69</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.64</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.94</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.64</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.76</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.95</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.79</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.27</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.93</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.76</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.95</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.58</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.84</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.28</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2.76</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.21</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.89</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.57</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.28</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2.93</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>80</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.14</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.62</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.89</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.65</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3.27</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2.76</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1.64</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.88</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.34</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5.51</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4.21</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3.84</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2.64</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.69</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8.32</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7.44</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6.34</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5.62</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3.79</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>200</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8.32</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6.88</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6.14</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4.58</v>
+      </c>
+      <c r="I14" s="5">
+        <v>3.95</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2.94</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2.39</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>400</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4.95</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>